--- a/08_05_2016.xlsx
+++ b/08_05_2016.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t xml:space="preserve">График 08.05.2016 год</t>
   </si>
@@ -239,6 +239,9 @@
     <t xml:space="preserve">Д. Аксаново|55.588028,35.864357</t>
   </si>
   <si>
+    <t xml:space="preserve">Храброво|55.444446,35.679901</t>
+  </si>
+  <si>
     <t xml:space="preserve">Д. Хотилово|55.600226,35.822406</t>
   </si>
   <si>
@@ -279,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">Уч-з Александрово баня 1/8 |55.518264,36.111562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Храброво|55.444446,35.659901</t>
   </si>
   <si>
     <t xml:space="preserve">Итого:</t>
@@ -294,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -374,6 +380,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -607,7 +619,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,7 +639,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -647,7 +659,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -655,7 +667,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,11 +683,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,6 +700,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3C3C3C"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -698,17 +770,17 @@
   </sheetPr>
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1023,19 +1095,19 @@
   </sheetPr>
   <dimension ref="B1:E35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1049,25 +1121,25 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>40</v>
@@ -1182,12 +1254,14 @@
       <c r="C13" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="E13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="29" t="n">
         <v>5</v>
@@ -1197,7 +1271,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="29" t="n">
         <v>5</v>
@@ -1207,7 +1281,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="29" t="n">
         <v>5</v>
@@ -1217,7 +1291,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="29" t="n">
         <v>5</v>
@@ -1227,7 +1301,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="29" t="n">
         <v>5</v>
@@ -1237,7 +1311,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="29" t="n">
         <v>5</v>
@@ -1247,7 +1321,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="29" t="n">
         <v>5</v>
@@ -1257,7 +1331,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="29" t="n">
         <v>6</v>
@@ -1267,7 +1341,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="30"/>
@@ -1275,7 +1349,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="29" t="n">
         <v>3.75</v>
@@ -1285,7 +1359,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="29" t="n">
         <v>2.25</v>
@@ -1295,7 +1369,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="29" t="n">
         <v>1.5</v>
@@ -1305,7 +1379,7 @@
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="36"/>
@@ -1313,7 +1387,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="29" t="n">
         <v>25</v>
@@ -1321,8 +1395,10 @@
       <c r="D27" s="36"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="C28" s="29"/>
       <c r="D28" s="36"/>
       <c r="E28" s="34"/>
@@ -1362,14 +1438,14 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="40" t="n">
         <f aca="false">C31+E31</f>
         <v>143.5</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1469,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
